--- a/tests/output/01-presets.xlsx
+++ b/tests/output/01-presets.xlsx
@@ -68,7 +68,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -76,22 +76,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,18 +476,18 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>5000</v>
       </c>
     </row>
@@ -480,34 +503,34 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>5000</v>
       </c>
     </row>
@@ -531,26 +554,26 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>5000</v>
       </c>
     </row>

--- a/tests/output/01-presets.xlsx
+++ b/tests/output/01-presets.xlsx
@@ -458,6 +458,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9.2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -501,6 +505,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9.2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -544,6 +552,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9.2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
